--- a/tests/xls_files/Demand.xlsx
+++ b/tests/xls_files/Demand.xlsx
@@ -106,7 +106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -138,25 +138,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,31 +463,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -571,1025 +568,1025 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>45070</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>269</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>324</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>379</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>380</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>381</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>382</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>343</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>304</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>265</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>226</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>187</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>148</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>109</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>70</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>71</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>72</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="3">
         <v>73</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="3">
         <v>74</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="3">
         <v>75</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="3">
         <v>176</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="3">
         <v>77</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="3">
         <v>78</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="3">
         <v>79</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="3">
         <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>45071</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>270</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>325</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>380</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>381</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>382</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>383</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>344</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>305</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>266</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>227</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>188</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>149</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>110</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>71</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>72</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>73</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>74</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>75</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>76</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <v>77</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>78</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <v>79</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="3">
         <v>80</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="3">
         <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>45072</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>271</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>326</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>381</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>382</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>383</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>384</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>345</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>306</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>267</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>228</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>189</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>150</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>111</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>72</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>73</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>74</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>75</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>76</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>77</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>78</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>79</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="3">
         <v>80</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="3">
         <v>81</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="3">
         <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>45073</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>272</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>327</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>382</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>383</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>384</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>385</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>346</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>307</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>268</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>229</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>190</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>151</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>112</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>73</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>74</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>75</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>76</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>77</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>78</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>79</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>80</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="3">
         <v>81</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="3">
         <v>82</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="3">
         <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>45074</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>273</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>328</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>383</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>384</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>385</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>386</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>347</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>308</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>269</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>230</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>191</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>152</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>113</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>74</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>75</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>76</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>77</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <v>78</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>79</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <v>80</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>81</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="3">
         <v>82</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="3">
         <v>83</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="3">
         <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>45075</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>274</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>329</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>384</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>385</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>386</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>387</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>348</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>309</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>270</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>231</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>192</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>153</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>114</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>75</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>76</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>77</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>78</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>79</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>80</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>81</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>82</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>83</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <v>84</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="3">
         <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>45076</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>275</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>330</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>385</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>386</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>387</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>388</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>349</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>310</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>271</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>232</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>193</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>154</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>115</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>76</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>77</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>78</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>79</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>80</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>81</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>82</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>83</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="3">
         <v>84</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="3">
         <v>85</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="3">
         <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>45077</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>276</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>331</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>386</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>387</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>388</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>389</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>350</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>311</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>272</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>233</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>194</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>155</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>116</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>77</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>78</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>79</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>80</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>81</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>82</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>83</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>84</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>85</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>86</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="3">
         <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
